--- a/participants.xlsx
+++ b/participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IHecert-v1.2-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IHecert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532AFB22-9205-4A60-90CA-524C1A3022D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8836D93-5DA5-4366-A75B-6EFF38EE5189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="45" windowWidth="14355" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="645" windowWidth="14355" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>choukatanagari@yahoo.com</t>
-  </si>
-  <si>
-    <t>choukatanagari@gmail.com</t>
-  </si>
-  <si>
-    <t>Syira</t>
-  </si>
-  <si>
-    <t>baba</t>
   </si>
 </sst>
 </file>
@@ -334,7 +322,7 @@
   <dimension ref="A1:B993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -352,20 +340,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -3480,7 +3460,6 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A2:A40" r:id="rId1" display="choukatanagari@yahoo.com" xr:uid="{6F98BE6D-D95A-49D6-92EC-65466693CBF7}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{36CC5C06-A735-4E5B-9B7E-63587C0AE2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
